--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/cab/organization.brand.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/cab/organization.brand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720914E2-4877-FE48-978E-1D805B2B8671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CFDEE3-B8BA-5244-B9A1-41390BE2AF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73800" yWindow="-13660" windowWidth="37240" windowHeight="25920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74180" yWindow="-3200" windowWidth="37240" windowHeight="25920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="184">
   <si>
     <t>key</t>
   </si>
@@ -550,13 +552,71 @@
   <si>
     <t>JSON:plugin/ke/rule.form/res.brand.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PERM_SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限集主键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限集名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限集类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务数据管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0f8f4897-1de7-4a46-ae52-c4d408e2f093</t>
+  </si>
+  <si>
+    <t>b9923eb1-d782-4375-aa19-565dc18659fa</t>
+  </si>
+  <si>
+    <t>7588c561-1646-478a-8b60-1b6933d35efb</t>
+  </si>
+  <si>
+    <t>f951e56c-e51d-43f4-af88-cd111cded028</t>
+  </si>
+  <si>
+    <t>a1d70961-5a6b-4373-89dd-e2cf569e4f22</t>
+  </si>
+  <si>
+    <t>61b08e19-d00e-4cb3-b6ff-f4b5026600ae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,8 +653,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线 (Body)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线 (Body)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,8 +719,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -704,11 +804,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,6 +881,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:K54"/>
+  <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1134,1050 +1269,928 @@
     <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:9" s="28" customFormat="1">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" s="28" customFormat="1">
+      <c r="A3" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="28" customFormat="1">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="28" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="28" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="28" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="28" customFormat="1">
+      <c r="A8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="28" customFormat="1">
+      <c r="A9" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="28" customFormat="1">
+      <c r="A10" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="10" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="10" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="16" t="str">
-        <f t="shared" ref="B19:B33" si="0">A39</f>
-        <v>03625b2e-ec60-42a8-9b1f-c7807ad8f6a8</v>
-      </c>
-      <c r="C19" s="16" t="str">
-        <f>A6</f>
-        <v>fbda8103-e1a3-4d6a-b877-bff11c950d6b</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>59</v>
+        <v>161</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="11">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="16" t="str">
+        <f t="shared" ref="B28:B42" si="0">A48</f>
+        <v>03625b2e-ec60-42a8-9b1f-c7807ad8f6a8</v>
+      </c>
+      <c r="C28" s="16" t="str">
+        <f>A15</f>
+        <v>fbda8103-e1a3-4d6a-b877-bff11c950d6b</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
         <v>c7465ab3-e061-44f5-8dc6-12c14c1926f9</v>
       </c>
-      <c r="C20" s="16" t="str">
-        <f>A7</f>
+      <c r="C29" s="16" t="str">
+        <f>A16</f>
         <v>03e51b32-fe24-44f5-af7a-945c70fc6034</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H29" s="11">
         <v>4</v>
       </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10" t="s">
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>34f92a30-f93c-4bb4-ac4b-dd85c94e1b66</v>
       </c>
-      <c r="C21" s="16" t="str">
-        <f>A8</f>
+      <c r="C30" s="16" t="str">
+        <f>A17</f>
         <v>c7933b56-d652-42d2-bbd2-bef7931d7f66</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H30" s="11">
         <v>8</v>
       </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10" t="s">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
         <v>e0d0bacd-1041-4809-916d-d50c21d69197</v>
       </c>
-      <c r="C22" s="16" t="str">
-        <f>A9</f>
+      <c r="C31" s="16" t="str">
+        <f>A18</f>
         <v>d3dc95a6-ca76-4d8e-b4c9-102e5a1f09ef</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H31" s="11">
         <v>12</v>
       </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10" t="s">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>fd4ad9bd-888a-48c4-aa1d-48e0c20eaffc</v>
       </c>
-      <c r="C23" s="16" t="str">
-        <f>A6</f>
+      <c r="C32" s="16" t="str">
+        <f>A15</f>
         <v>fbda8103-e1a3-4d6a-b877-bff11c950d6b</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H32" s="11">
         <v>1</v>
       </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10" t="s">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B33" s="16" t="str">
         <f t="shared" si="0"/>
         <v>378c0ea8-49eb-4298-aaed-47b1b3e05d46</v>
       </c>
-      <c r="C24" s="16" t="str">
-        <f>A8</f>
+      <c r="C33" s="16" t="str">
+        <f>A17</f>
         <v>c7933b56-d652-42d2-bbd2-bef7931d7f66</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H33" s="11">
         <v>8</v>
       </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="10" t="s">
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="16" t="str">
+      <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
         <v>e743d207-627f-48f9-83b0-1132b436f3ff</v>
       </c>
-      <c r="C25" s="16" t="str">
-        <f>A9</f>
+      <c r="C34" s="16" t="str">
+        <f>A18</f>
         <v>d3dc95a6-ca76-4d8e-b4c9-102e5a1f09ef</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H34" s="11">
         <v>12</v>
       </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="10" t="s">
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="16" t="str">
+      <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
         <v>4e264fb6-b0f5-4362-a42b-0379ad177981</v>
       </c>
-      <c r="C26" s="16" t="str">
-        <f>A10</f>
+      <c r="C35" s="16" t="str">
+        <f>A19</f>
         <v>2aea0afe-b9ee-4141-8a10-de98dbc5f74a</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H35" s="11">
         <v>3</v>
       </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="10" t="s">
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
         <v>7b72c7a4-0181-4f75-98ac-a48dbddd30fc</v>
       </c>
-      <c r="C27" s="16" t="str">
-        <f>A10</f>
+      <c r="C36" s="16" t="str">
+        <f>A19</f>
         <v>2aea0afe-b9ee-4141-8a10-de98dbc5f74a</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H36" s="11">
         <v>3</v>
       </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="16" t="str">
+      <c r="B37" s="16" t="str">
         <f t="shared" si="0"/>
         <v>4d85f975-b125-4d28-b963-d0fa377eabe5</v>
       </c>
-      <c r="C28" s="16" t="str">
-        <f>A10</f>
+      <c r="C37" s="16" t="str">
+        <f>A19</f>
         <v>2aea0afe-b9ee-4141-8a10-de98dbc5f74a</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H37" s="11">
         <v>11</v>
       </c>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="10" t="s">
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B38" s="16" t="str">
         <f t="shared" si="0"/>
         <v>449cede3-e4e7-4725-89b6-b8bc79999fb7</v>
       </c>
-      <c r="C29" s="16" t="str">
-        <f>A11</f>
+      <c r="C38" s="16" t="str">
+        <f>A20</f>
         <v>167913fa-42b6-4afb-b676-cddfdcd68faf</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H38" s="11">
         <v>5</v>
       </c>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B39" s="16" t="str">
         <f t="shared" si="0"/>
         <v>a2dd5c1f-9b5e-44ff-846c-cc4c7f4d8c62</v>
       </c>
-      <c r="C30" s="16" t="str">
-        <f>A11</f>
+      <c r="C39" s="16" t="str">
+        <f>A20</f>
         <v>167913fa-42b6-4afb-b676-cddfdcd68faf</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H39" s="11">
         <v>3</v>
       </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="10" t="s">
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B40" s="16" t="str">
         <f t="shared" si="0"/>
         <v>350c772f-2ace-4f4c-a5b7-8456497bc3e5</v>
       </c>
-      <c r="C31" s="16" t="str">
-        <f>A6</f>
+      <c r="C40" s="16" t="str">
+        <f>A15</f>
         <v>fbda8103-e1a3-4d6a-b877-bff11c950d6b</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F40" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H40" s="11">
         <v>1</v>
       </c>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="16" t="str">
+      <c r="B41" s="16" t="str">
         <f t="shared" si="0"/>
         <v>f59f065b-d563-4848-8b90-514074c51226</v>
       </c>
-      <c r="C32" s="16" t="str">
-        <f>A6</f>
+      <c r="C41" s="16" t="str">
+        <f>A15</f>
         <v>fbda8103-e1a3-4d6a-b877-bff11c950d6b</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D41" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F41" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H41" s="11">
         <v>1</v>
       </c>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="10" t="s">
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="16" t="str">
+      <c r="B42" s="16" t="str">
         <f t="shared" si="0"/>
         <v>9ee687c3-0200-44b0-938a-214480bf07fd</v>
       </c>
-      <c r="C33" s="16" t="str">
-        <f>A6</f>
+      <c r="C42" s="16" t="str">
+        <f>A15</f>
         <v>fbda8103-e1a3-4d6a-b877-bff11c950d6b</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D42" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H42" s="11">
         <v>2</v>
       </c>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="3"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="3"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="3"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="3"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="5" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I46" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K46" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="7" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J47" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K47" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="11">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="11">
-        <v>4</v>
-      </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="11">
-        <v>8</v>
-      </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="11">
-        <v>12</v>
-      </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="11">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="11">
-        <v>8</v>
-      </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="11">
-        <v>12</v>
-      </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="11">
-        <v>3</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="11">
-        <v>3</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>52</v>
@@ -2186,25 +2199,29 @@
         <v>47</v>
       </c>
       <c r="G48" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
+      <c r="J48" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>52</v>
@@ -2213,7 +2230,7 @@
         <v>47</v>
       </c>
       <c r="G49" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -2222,16 +2239,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>52</v>
@@ -2240,7 +2257,7 @@
         <v>47</v>
       </c>
       <c r="G50" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -2249,16 +2266,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>52</v>
@@ -2267,7 +2284,7 @@
         <v>47</v>
       </c>
       <c r="G51" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -2276,16 +2293,16 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>52</v>
@@ -2303,16 +2320,16 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>52</v>
@@ -2321,7 +2338,7 @@
         <v>47</v>
       </c>
       <c r="G53" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -2329,19 +2346,263 @@
       <c r="K53" s="13"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="3"/>
-      <c r="K54" s="14"/>
+      <c r="A54" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="11">
+        <v>12</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="11">
+        <v>3</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="11">
+        <v>3</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="11">
+        <v>11</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="11">
+        <v>5</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="11">
+        <v>3</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="11">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="11">
+        <v>2</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="3"/>
+      <c r="K63" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C36:K36"/>
+  <mergeCells count="4">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
